--- a/日経社説ー春秋/戦略特区テコに岩盤規制砕け.xlsx
+++ b/日経社説ー春秋/戦略特区テコに岩盤規制砕け.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="16155" windowHeight="6255"/>
@@ -11,66 +11,115 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>穿つ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>うがつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ことの裏面の事情を詮索する。人情の機微などをとらえる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>やつぎばや</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢継ぎ早</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>続けざまに早く行うこと。また、そのさま。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡座をかく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あぐらをかく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自分はなんの努力もせず、あるものに頼ってゆうゆうと構えている。ずうずうしく構える。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はくじつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>やましいところのないたとえ。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ここまで的を外した法案は珍しい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民進党の櫻井充参院議員が近く同院に出すと表明した国家戦略特区廃止法案である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施行から２年内に特区廃止を含めて検討するよう政権に義務づける内容だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>安倍政権が特区に指定した愛媛県今治市での学校法人家計学園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・岡山理科大の獣医学部新設問題が発端という。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかし、この問題と戦略特区を使った成長戦略とは別の話だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政権は特区を駆使して岩盤規制を穿つ改革をさらに強化させるべきである。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相を議長とし、民間有識者で構成する特区諮問会議は、獣医学部の新設を学部空白地域で１大学にだけ認めた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民進党と一部のメディアは政権が他大学を締め出したという趣旨の主張をしている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１大学に限ったのは獣医師の業界団体である日本獣医師会の主張に配慮したのが実態だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同会は新設に強硬に反対し、ロビー活動を繰り広げた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其の結果、諮問会議は今治市を突破口と位置付け、まず加計学園に認めた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そもそも法的な根拠がないままに文武科学省が半世紀あまりにわたり、行政指導で獣医学部の親切を阻んできたことこそが岩盤規制である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既存の学部や獣医師が不利益を被るというのは、競争を嫌がる供給側の理屈にすぎない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育と研究の質を高め、食の安全向上や感染症対策の強化で消費者に広く恩恵を行き渡らせるために、新設を自由化するのが筋だ。それまでの間は第２、第３の特区を矢継ぎ早に指定し、意欲ある大学経営者に参入を認めるべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学部も同様だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今春、千葉県成田市の戦略特区で国際医療福祉大が医学部を開設させた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特例を除くと新設は３８年ぶりだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新薬開発など医療技術は高度化している。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参入規制にあぐらをかく既存医学部に、時代に即応できる意志を輩出させる力があるだろうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加計学園の理事長と首相は友人関係にある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この間の経緯を白日の下に晒すのは当然だが、戦略特区を悪者扱いするのは、それこそ筋が悪すぎる。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +133,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,9 +166,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -128,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +262,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,7 +296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,77 +471,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="91.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="40.5">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -491,12 +611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
